--- a/Testes/Threadring/Threadring - 50000 process.xlsx
+++ b/Testes/Threadring/Threadring - 50000 process.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="9">
   <si>
     <t>Erlang</t>
   </si>
@@ -39,12 +39,6 @@
   </si>
   <si>
     <t>Scala - Normal</t>
-  </si>
-  <si>
-    <t>Tempo médio</t>
-  </si>
-  <si>
-    <t>Tempo total</t>
   </si>
   <si>
     <t>ooErlang</t>
@@ -513,11 +507,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="133304320"/>
-        <c:axId val="137316032"/>
+        <c:axId val="93108224"/>
+        <c:axId val="46667392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="133304320"/>
+        <c:axId val="93108224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -537,7 +531,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137316032"/>
+        <c:crossAx val="46667392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -545,7 +539,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137316032"/>
+        <c:axId val="46667392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -580,7 +574,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133304320"/>
+        <c:crossAx val="93108224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -991,11 +985,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="133305344"/>
-        <c:axId val="137318912"/>
+        <c:axId val="93109760"/>
+        <c:axId val="94462528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="133305344"/>
+        <c:axId val="93109760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1015,7 +1009,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137318912"/>
+        <c:crossAx val="94462528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1023,7 +1017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137318912"/>
+        <c:axId val="94462528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1053,7 +1047,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133305344"/>
+        <c:crossAx val="93109760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1443,11 +1437,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="133307904"/>
-        <c:axId val="137320640"/>
+        <c:axId val="94421504"/>
+        <c:axId val="94464256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="133307904"/>
+        <c:axId val="94421504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1467,7 +1461,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137320640"/>
+        <c:crossAx val="94464256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1475,7 +1469,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137320640"/>
+        <c:axId val="94464256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1505,7 +1499,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133307904"/>
+        <c:crossAx val="94421504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1692,11 +1686,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136360448"/>
-        <c:axId val="47710784"/>
+        <c:axId val="94422528"/>
+        <c:axId val="94466560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136360448"/>
+        <c:axId val="94422528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1716,7 +1710,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47710784"/>
+        <c:crossAx val="94466560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1724,7 +1718,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47710784"/>
+        <c:axId val="94466560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1759,7 +1753,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136360448"/>
+        <c:crossAx val="94422528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1959,11 +1953,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136360960"/>
-        <c:axId val="47713088"/>
+        <c:axId val="94423040"/>
+        <c:axId val="94468864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136360960"/>
+        <c:axId val="94423040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1983,7 +1977,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47713088"/>
+        <c:crossAx val="94468864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1991,7 +1985,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47713088"/>
+        <c:axId val="94468864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2021,7 +2015,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136360960"/>
+        <c:crossAx val="94423040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2221,11 +2215,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="133304832"/>
-        <c:axId val="47715392"/>
+        <c:axId val="93109248"/>
+        <c:axId val="98829440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="133304832"/>
+        <c:axId val="93109248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2245,7 +2239,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47715392"/>
+        <c:crossAx val="98829440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2253,7 +2247,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47715392"/>
+        <c:axId val="98829440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2283,7 +2277,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="133304832"/>
+        <c:crossAx val="93109248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2785,8 +2779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="AS5" sqref="AS5"/>
+    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="AI6" sqref="AI6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2827,6 +2821,7 @@
     <col min="45" max="45" width="33.42578125" customWidth="1"/>
     <col min="50" max="50" width="17.28515625" customWidth="1"/>
     <col min="51" max="51" width="19.42578125" customWidth="1"/>
+    <col min="52" max="52" width="10.5703125" customWidth="1"/>
     <col min="53" max="53" width="24.42578125" customWidth="1"/>
     <col min="54" max="54" width="23.42578125" customWidth="1"/>
   </cols>
@@ -2848,13 +2843,13 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
@@ -2872,13 +2867,13 @@
         <v>5</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>2</v>
@@ -2896,13 +2891,13 @@
         <v>5</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
@@ -2988,13 +2983,13 @@
         <v>5</v>
       </c>
       <c r="AH2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="AL2" s="1" t="s">
         <v>2</v>
@@ -3012,13 +3007,13 @@
         <v>5</v>
       </c>
       <c r="AQ2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>2</v>
@@ -3036,13 +3031,13 @@
         <v>5</v>
       </c>
       <c r="AZ2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BB2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
@@ -5352,9 +5347,7 @@
       </c>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="6" t="s">
-        <v>6</v>
-      </c>
+      <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -5364,122 +5357,54 @@
       <c r="H46" s="7"/>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
     </row>
     <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="7">
-        <v>5000</v>
-      </c>
-      <c r="B48" s="7">
-        <v>5000</v>
-      </c>
-      <c r="C48" s="7">
-        <v>264596843.40000001</v>
-      </c>
-      <c r="D48" s="7">
-        <v>2811134181.6999998</v>
-      </c>
-      <c r="E48" s="7">
-        <v>3667592650.8000002</v>
-      </c>
-      <c r="F48" s="7">
-        <v>297741988</v>
-      </c>
-      <c r="G48" s="7">
-        <v>2778971416.5999999</v>
-      </c>
-      <c r="H48" s="7">
-        <v>0</v>
-      </c>
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A49" s="7">
-        <v>5000</v>
-      </c>
-      <c r="B49" s="7">
-        <v>10000</v>
-      </c>
-      <c r="C49" s="7">
-        <v>521389171.10000002</v>
-      </c>
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
       <c r="D49" s="7"/>
-      <c r="E49" s="7">
-        <v>7325439314.6999998</v>
-      </c>
-      <c r="F49" s="7">
-        <v>586044156.70000005</v>
-      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
       <c r="G49" s="7"/>
-      <c r="H49" s="7">
-        <v>0</v>
-      </c>
+      <c r="H49" s="7"/>
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A50" s="7">
-        <v>5000</v>
-      </c>
-      <c r="B50" s="7">
-        <v>50000</v>
-      </c>
-      <c r="C50" s="7">
-        <v>2624102250.9000001</v>
-      </c>
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
       <c r="D50" s="7"/>
-      <c r="E50" s="7">
-        <v>36296572829.5</v>
-      </c>
-      <c r="F50" s="7">
-        <v>2908324154</v>
-      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
       <c r="G50" s="7"/>
-      <c r="H50" s="7">
-        <v>0</v>
-      </c>
+      <c r="H50" s="7"/>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A51" s="7">
-        <v>5000</v>
-      </c>
-      <c r="B51" s="7">
-        <v>100000</v>
-      </c>
-      <c r="C51" s="7">
-        <v>5284508902.6999998</v>
-      </c>
+      <c r="A51" s="7"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
       <c r="D51" s="7"/>
-      <c r="E51" s="7">
-        <v>0</v>
-      </c>
-      <c r="F51" s="7">
-        <v>5883475708.6999998</v>
-      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
       <c r="G51" s="7"/>
-      <c r="H51" s="7">
-        <v>0</v>
-      </c>
+      <c r="H51" s="7"/>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
@@ -5487,131 +5412,59 @@
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
-      <c r="F52" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
       <c r="H52" s="7"/>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A54" s="7">
-        <v>10000</v>
-      </c>
-      <c r="B54" s="7">
-        <v>5000</v>
-      </c>
-      <c r="C54" s="7">
-        <v>263672190.09999999</v>
-      </c>
-      <c r="D54" s="7">
-        <v>2800323982.8000002</v>
-      </c>
-      <c r="E54" s="7">
-        <v>11231538317.6</v>
-      </c>
-      <c r="F54" s="7">
-        <v>298241460.10000002</v>
-      </c>
-      <c r="G54" s="7">
-        <v>2784870566.0999999</v>
-      </c>
-      <c r="H54" s="7">
-        <v>0</v>
-      </c>
+      <c r="A54" s="7"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A55" s="7">
-        <v>10000</v>
-      </c>
-      <c r="B55" s="7">
-        <v>10000</v>
-      </c>
-      <c r="C55" s="7">
-        <v>520232953.39999998</v>
-      </c>
+      <c r="A55" s="7"/>
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
       <c r="D55" s="7"/>
-      <c r="E55" s="7">
-        <v>22449560634.099998</v>
-      </c>
-      <c r="F55" s="7">
-        <v>590263933.79999995</v>
-      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
       <c r="G55" s="7"/>
-      <c r="H55" s="7">
-        <v>0</v>
-      </c>
+      <c r="H55" s="7"/>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A56" s="7">
-        <v>10000</v>
-      </c>
-      <c r="B56" s="7">
-        <v>50000</v>
-      </c>
-      <c r="C56" s="7">
-        <v>2583294524.6999998</v>
-      </c>
+      <c r="A56" s="7"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
       <c r="D56" s="7"/>
-      <c r="E56" s="7">
-        <v>0</v>
-      </c>
-      <c r="F56" s="7">
-        <v>2982517922.5</v>
-      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
       <c r="G56" s="7"/>
-      <c r="H56" s="7">
-        <v>0</v>
-      </c>
+      <c r="H56" s="7"/>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A57" s="7">
-        <v>10000</v>
-      </c>
-      <c r="B57" s="7">
-        <v>100000</v>
-      </c>
-      <c r="C57" s="7">
-        <v>5165531760.1000004</v>
-      </c>
+      <c r="A57" s="7"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
       <c r="D57" s="7"/>
-      <c r="E57" s="7">
-        <v>0</v>
-      </c>
-      <c r="F57" s="7">
-        <v>5926176664.3000002</v>
-      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
       <c r="G57" s="7"/>
-      <c r="H57" s="7">
-        <v>0</v>
-      </c>
+      <c r="H57" s="7"/>
       <c r="AH57" s="2"/>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
@@ -5625,104 +5478,52 @@
       <c r="H58" s="7"/>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A59" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A59" s="7"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A60" s="7">
-        <v>50000</v>
-      </c>
-      <c r="B60" s="7">
-        <v>5000</v>
-      </c>
-      <c r="C60" s="7">
-        <v>296774405.30000001</v>
-      </c>
-      <c r="D60" s="7">
-        <v>2812080652.0999999</v>
-      </c>
+      <c r="A60" s="7"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
       <c r="E60" s="7"/>
-      <c r="F60" s="7">
-        <v>335346623.30000001</v>
-      </c>
-      <c r="G60" s="7">
-        <v>2788192045.1999998</v>
-      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
       <c r="H60" s="7"/>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A61" s="7">
-        <v>50000</v>
-      </c>
-      <c r="B61" s="7">
-        <v>10000</v>
-      </c>
-      <c r="C61" s="7">
-        <v>599548572.79999995</v>
-      </c>
+      <c r="A61" s="7"/>
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
-      <c r="F61" s="7">
-        <v>665762957.60000002</v>
-      </c>
+      <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A62" s="7">
-        <v>50000</v>
-      </c>
-      <c r="B62" s="7">
-        <v>50000</v>
-      </c>
-      <c r="C62" s="7">
-        <v>2945796371.9000001</v>
-      </c>
+      <c r="A62" s="7"/>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
-      <c r="F62" s="7">
-        <v>3331912651.5</v>
-      </c>
+      <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A63" s="7">
-        <v>50000</v>
-      </c>
-      <c r="B63" s="7">
-        <v>100000</v>
-      </c>
-      <c r="C63" s="7">
-        <v>5865947820.6999998</v>
-      </c>
+      <c r="A63" s="7"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
-      <c r="F63" s="7">
-        <v>6639887010.5</v>
-      </c>
+      <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
     </row>
@@ -5737,9 +5538,7 @@
       <c r="H64" s="7"/>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -5749,164 +5548,60 @@
       <c r="H65" s="7"/>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A66" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A67" s="7">
-        <v>5000</v>
-      </c>
-      <c r="B67" s="7">
-        <v>5000</v>
-      </c>
-      <c r="C67" s="7">
-        <f>C48*10</f>
-        <v>2645968434</v>
-      </c>
-      <c r="D67" s="7">
-        <f t="shared" ref="D67:H67" si="4">D48*10</f>
-        <v>28111341817</v>
-      </c>
-      <c r="E67" s="7">
-        <f t="shared" si="4"/>
-        <v>36675926508</v>
-      </c>
-      <c r="F67" s="7">
-        <f t="shared" si="4"/>
-        <v>2977419880</v>
-      </c>
-      <c r="G67" s="7">
-        <f t="shared" si="4"/>
-        <v>27789714166</v>
-      </c>
-      <c r="H67" s="7">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
       <c r="W67" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A68" s="7">
-        <v>5000</v>
-      </c>
-      <c r="B68" s="7">
-        <v>10000</v>
-      </c>
-      <c r="C68" s="7">
-        <f t="shared" ref="C68:C70" si="5">C49*10</f>
-        <v>5213891711</v>
-      </c>
-      <c r="D68" s="7">
-        <f t="shared" ref="D68:H68" si="6">D49*10</f>
-        <v>0</v>
-      </c>
-      <c r="E68" s="7">
-        <f t="shared" si="6"/>
-        <v>73254393147</v>
-      </c>
-      <c r="F68" s="7">
-        <f t="shared" si="6"/>
-        <v>5860441567</v>
-      </c>
-      <c r="G68" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="H68" s="7">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A69" s="7">
-        <v>5000</v>
-      </c>
-      <c r="B69" s="7">
-        <v>50000</v>
-      </c>
-      <c r="C69" s="7">
-        <f t="shared" si="5"/>
-        <v>26241022509</v>
-      </c>
-      <c r="D69" s="7">
-        <f t="shared" ref="D69:H69" si="7">D50*10</f>
-        <v>0</v>
-      </c>
-      <c r="E69" s="7">
-        <f t="shared" si="7"/>
-        <v>362965728295</v>
-      </c>
-      <c r="F69" s="7">
-        <f t="shared" si="7"/>
-        <v>29083241540</v>
-      </c>
-      <c r="G69" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H69" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
       <c r="W69" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A70" s="7">
-        <v>5000</v>
-      </c>
-      <c r="B70" s="7">
-        <v>100000</v>
-      </c>
-      <c r="C70" s="7">
-        <f t="shared" si="5"/>
-        <v>52845089027</v>
-      </c>
-      <c r="D70" s="7">
-        <f t="shared" ref="D70:H70" si="8">D51*10</f>
-        <v>0</v>
-      </c>
-      <c r="E70" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="F70" s="7">
-        <f t="shared" si="8"/>
-        <v>58834757087</v>
-      </c>
-      <c r="G70" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="H70" s="7">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
@@ -5914,176 +5609,68 @@
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
-      <c r="F71" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>1</v>
-      </c>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
       <c r="H71" s="7"/>
       <c r="W71" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A72" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A73" s="7">
-        <v>10000</v>
-      </c>
-      <c r="B73" s="7">
-        <v>5000</v>
-      </c>
-      <c r="C73" s="7">
-        <f t="shared" ref="C73:H73" si="9">C54*10</f>
-        <v>2636721901</v>
-      </c>
-      <c r="D73" s="7">
-        <f t="shared" si="9"/>
-        <v>28003239828</v>
-      </c>
-      <c r="E73" s="7">
-        <f t="shared" si="9"/>
-        <v>112315383176</v>
-      </c>
-      <c r="F73" s="7">
-        <f t="shared" si="9"/>
-        <v>2982414601</v>
-      </c>
-      <c r="G73" s="7">
-        <f t="shared" si="9"/>
-        <v>27848705661</v>
-      </c>
-      <c r="H73" s="7">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
+      <c r="A73" s="7"/>
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
       <c r="W73" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A74" s="7">
-        <v>10000</v>
-      </c>
-      <c r="B74" s="7">
-        <v>10000</v>
-      </c>
-      <c r="C74" s="7">
-        <f t="shared" ref="C74:H74" si="10">C55*10</f>
-        <v>5202329534</v>
-      </c>
-      <c r="D74" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="E74" s="7">
-        <f t="shared" si="10"/>
-        <v>224495606341</v>
-      </c>
-      <c r="F74" s="7">
-        <f t="shared" si="10"/>
-        <v>5902639338</v>
-      </c>
-      <c r="G74" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="H74" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+      <c r="A74" s="7"/>
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A75" s="7">
-        <v>10000</v>
-      </c>
-      <c r="B75" s="7">
-        <v>50000</v>
-      </c>
-      <c r="C75" s="7">
-        <f t="shared" ref="C75:H75" si="11">C56*10</f>
-        <v>25832945247</v>
-      </c>
-      <c r="D75" s="7">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E75" s="7">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F75" s="7">
-        <f t="shared" si="11"/>
-        <v>29825179225</v>
-      </c>
-      <c r="G75" s="7">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H75" s="7">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
       <c r="W75" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A76" s="7">
-        <v>10000</v>
-      </c>
-      <c r="B76" s="7">
-        <v>100000</v>
-      </c>
-      <c r="C76" s="7">
-        <f t="shared" ref="C76:H76" si="12">C57*10</f>
-        <v>51655317601</v>
-      </c>
-      <c r="D76" s="7">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="E76" s="7">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="F76" s="7">
-        <f t="shared" si="12"/>
-        <v>59261766643</v>
-      </c>
-      <c r="G76" s="7">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="H76" s="7">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+      <c r="A76" s="7"/>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
@@ -6096,62 +5683,24 @@
       <c r="H77" s="7"/>
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A78" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="A78" s="7"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A79" s="7">
-        <v>50000</v>
-      </c>
-      <c r="B79" s="7">
-        <v>5000</v>
-      </c>
-      <c r="C79" s="7">
-        <f t="shared" ref="C79:H79" si="13">C60*10</f>
-        <v>2967744053</v>
-      </c>
-      <c r="D79" s="7">
-        <f t="shared" si="13"/>
-        <v>28120806521</v>
-      </c>
-      <c r="E79" s="7">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F79" s="7">
-        <f t="shared" si="13"/>
-        <v>3353466233</v>
-      </c>
-      <c r="G79" s="7">
-        <f t="shared" si="13"/>
-        <v>27881920452</v>
-      </c>
-      <c r="H79" s="7">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
+      <c r="A79" s="7"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
       <c r="V79" s="1"/>
       <c r="W79" s="1"/>
       <c r="X79" s="1"/>
@@ -6160,102 +5709,36 @@
       <c r="AA79" s="1"/>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A80" s="7">
-        <v>50000</v>
-      </c>
-      <c r="B80" s="7">
-        <v>10000</v>
-      </c>
-      <c r="C80" s="7">
-        <f t="shared" ref="C80:H80" si="14">C61*10</f>
-        <v>5995485728</v>
-      </c>
-      <c r="D80" s="7">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E80" s="7">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F80" s="7">
-        <f t="shared" si="14"/>
-        <v>6657629576</v>
-      </c>
-      <c r="G80" s="7">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H80" s="7">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
+      <c r="A80" s="7"/>
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
       <c r="K80" s="3"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="7">
-        <v>50000</v>
-      </c>
-      <c r="B81" s="7">
-        <v>50000</v>
-      </c>
-      <c r="C81" s="7">
-        <f t="shared" ref="C81:H81" si="15">C62*10</f>
-        <v>29457963719</v>
-      </c>
-      <c r="D81" s="7">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="E81" s="7">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="F81" s="7">
-        <f t="shared" si="15"/>
-        <v>33319126515</v>
-      </c>
-      <c r="G81" s="7">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="H81" s="7">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
+      <c r="A81" s="7"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
       <c r="K81" s="3"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="7">
-        <v>50000</v>
-      </c>
-      <c r="B82" s="7">
-        <v>100000</v>
-      </c>
-      <c r="C82" s="7">
-        <f t="shared" ref="C82:H82" si="16">C63*10</f>
-        <v>58659478207</v>
-      </c>
-      <c r="D82" s="7">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="E82" s="7">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F82" s="7">
-        <f t="shared" si="16"/>
-        <v>66398870105</v>
-      </c>
-      <c r="G82" s="7">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H82" s="7">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
+      <c r="A82" s="7"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
       <c r="K82" s="3"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
